--- a/data/sample_data.xlsx
+++ b/data/sample_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenteurasto/Desktop/junction2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B96388-5F2B-594D-BA52-5DA1A1FDE7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC844740-69FC-0A4B-98F8-FC67ED31CA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28000" yWindow="1960" windowWidth="21540" windowHeight="19500" xr2:uid="{E43F782F-271A-2B4A-BFF4-571CF79397C7}"/>
+    <workbookView xWindow="9060" yWindow="1960" windowWidth="40480" windowHeight="19500" xr2:uid="{E43F782F-271A-2B4A-BFF4-571CF79397C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="163">
   <si>
     <t>vendor</t>
   </si>
@@ -120,12 +120,6 @@
     <t>kg</t>
   </si>
   <si>
-    <t>aluminium alloy, AlMg3</t>
-  </si>
-  <si>
-    <t>sugar, from sugar beet</t>
-  </si>
-  <si>
     <t>Povazsky cukor a.s.</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
     <t>Glass</t>
   </si>
   <si>
-    <t>packaging glass, brown</t>
-  </si>
-  <si>
     <t>Glass and glass products</t>
   </si>
   <si>
@@ -198,9 +189,6 @@
     <t>UA</t>
   </si>
   <si>
-    <t>Fruit, Berry &amp; Vegetable</t>
-  </si>
-  <si>
     <t>TARIS HandelsgesmbH</t>
   </si>
   <si>
@@ -399,12 +387,6 @@
     <t>DOC20B88865AF3</t>
   </si>
   <si>
-    <t>Vegetables, fruit, nuts</t>
-  </si>
-  <si>
-    <t>tomato, processing grade</t>
-  </si>
-  <si>
     <t>GLOBUS Konserven- u. Tiefk.prod. Gm</t>
   </si>
   <si>
@@ -492,7 +474,55 @@
     <t>DOC2E467125C10</t>
   </si>
   <si>
-    <t>soybean, organic</t>
+    <t>0.928844365</t>
+  </si>
+  <si>
+    <t>aluminium alloy. AlMg3</t>
+  </si>
+  <si>
+    <t>6.10472372176663</t>
+  </si>
+  <si>
+    <t>0.339257186</t>
+  </si>
+  <si>
+    <t>sugar. from sugar beet</t>
+  </si>
+  <si>
+    <t>0.547595322389136</t>
+  </si>
+  <si>
+    <t>0.944473135</t>
+  </si>
+  <si>
+    <t>packaging glass. brown</t>
+  </si>
+  <si>
+    <t>0.925963816017004</t>
+  </si>
+  <si>
+    <t>Fruit. Berry &amp; Vegetable</t>
+  </si>
+  <si>
+    <t>Vegetables. fruit. nuts</t>
+  </si>
+  <si>
+    <t>0.322466755</t>
+  </si>
+  <si>
+    <t>tomato. processing grade</t>
+  </si>
+  <si>
+    <t>0.231277620740733</t>
+  </si>
+  <si>
+    <t>0.280169480312827</t>
+  </si>
+  <si>
+    <t>soybean. organic</t>
+  </si>
+  <si>
+    <t>0.617971463508235</t>
   </si>
 </sst>
 </file>
@@ -857,7 +887,7 @@
   <dimension ref="A1:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,32 +993,32 @@
       <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2">
-        <v>0.92884436500000001</v>
+      <c r="N2" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>28</v>
+        <v>147</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="2">
-        <v>6.1047237217666304</v>
+      <c r="Q2" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
       </c>
       <c r="E3">
         <v>304</v>
@@ -997,51 +1027,51 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
         <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
       </c>
       <c r="K3">
         <v>71</v>
       </c>
       <c r="L3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
         <v>23</v>
       </c>
-      <c r="N3">
-        <v>0.33925718599999999</v>
+      <c r="N3" t="s">
+        <v>149</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="Q3">
-        <v>0.54759532238913555</v>
+      <c r="Q3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
       </c>
       <c r="E4">
         <v>198</v>
@@ -1050,51 +1080,51 @@
         <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
         <v>23</v>
       </c>
-      <c r="N4">
-        <v>0.94447313499999996</v>
+      <c r="N4" t="s">
+        <v>152</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="Q4">
-        <v>0.9259638160170035</v>
+      <c r="Q4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
       <c r="E5">
         <v>232</v>
@@ -1103,51 +1133,51 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K5">
         <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
-      <c r="N5">
-        <v>0.32246675499999999</v>
+      <c r="N5" t="s">
+        <v>157</v>
       </c>
       <c r="O5" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="Q5">
-        <v>0.23127762074073294</v>
+      <c r="Q5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>232</v>
@@ -1156,51 +1186,51 @@
         <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K6">
         <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="N6">
-        <v>0.32246675499999999</v>
+      <c r="N6" t="s">
+        <v>157</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P6" t="s">
         <v>27</v>
       </c>
-      <c r="Q6">
-        <v>0.23127762074073294</v>
+      <c r="Q6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7">
         <v>232</v>
@@ -1209,51 +1239,51 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K7">
         <v>75</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
       </c>
-      <c r="N7">
-        <v>0.32246675499999999</v>
+      <c r="N7" t="s">
+        <v>157</v>
       </c>
       <c r="O7" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="Q7">
-        <v>0.23127762074073294</v>
+      <c r="Q7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>222</v>
@@ -1262,51 +1292,51 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K8">
         <v>75</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M8" t="s">
         <v>23</v>
       </c>
-      <c r="N8">
-        <v>0.32246675499999999</v>
+      <c r="N8" t="s">
+        <v>157</v>
       </c>
       <c r="O8" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P8" t="s">
         <v>27</v>
       </c>
-      <c r="Q8">
-        <v>0.23127762074073294</v>
+      <c r="Q8" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>232</v>
@@ -1315,51 +1345,51 @@
         <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K9">
         <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M9" t="s">
         <v>23</v>
       </c>
-      <c r="N9">
-        <v>0.32246675499999999</v>
+      <c r="N9" t="s">
+        <v>157</v>
       </c>
       <c r="O9" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P9" t="s">
         <v>27</v>
       </c>
-      <c r="Q9">
-        <v>0.23127762074073294</v>
+      <c r="Q9" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>359</v>
@@ -1368,51 +1398,51 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K10">
         <v>75</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M10" t="s">
         <v>23</v>
       </c>
-      <c r="N10">
-        <v>0.32246675499999999</v>
+      <c r="N10" t="s">
+        <v>157</v>
       </c>
       <c r="O10" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P10" t="s">
         <v>27</v>
       </c>
-      <c r="Q10">
-        <v>0.23127762074073294</v>
+      <c r="Q10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11">
         <v>273</v>
@@ -1421,51 +1451,51 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K11">
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s">
         <v>23</v>
       </c>
-      <c r="N11">
-        <v>0.32246675499999999</v>
+      <c r="N11" t="s">
+        <v>157</v>
       </c>
       <c r="O11" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P11" t="s">
         <v>27</v>
       </c>
-      <c r="Q11">
-        <v>0.23127762074073294</v>
+      <c r="Q11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>222</v>
@@ -1474,51 +1504,51 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K12">
         <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s">
         <v>23</v>
       </c>
-      <c r="N12">
-        <v>0.32246675499999999</v>
+      <c r="N12" t="s">
+        <v>157</v>
       </c>
       <c r="O12" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s">
         <v>27</v>
       </c>
-      <c r="Q12">
-        <v>0.23127762074073294</v>
+      <c r="Q12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E13">
         <v>245</v>
@@ -1527,51 +1557,51 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K13">
         <v>75</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s">
         <v>23</v>
       </c>
-      <c r="N13">
-        <v>0.32246675499999999</v>
+      <c r="N13" t="s">
+        <v>157</v>
       </c>
       <c r="O13" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P13" t="s">
         <v>27</v>
       </c>
-      <c r="Q13">
-        <v>0.23127762074073294</v>
+      <c r="Q13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14">
         <v>334</v>
@@ -1580,51 +1610,51 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K14">
         <v>75</v>
       </c>
       <c r="L14" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s">
         <v>23</v>
       </c>
-      <c r="N14">
-        <v>0.32246675499999999</v>
+      <c r="N14" t="s">
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P14" t="s">
         <v>27</v>
       </c>
-      <c r="Q14">
-        <v>0.23127762074073294</v>
+      <c r="Q14" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E15">
         <v>72</v>
@@ -1633,51 +1663,51 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K15">
         <v>75</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s">
         <v>23</v>
       </c>
-      <c r="N15">
-        <v>0.32246675499999999</v>
+      <c r="N15" t="s">
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P15" t="s">
         <v>27</v>
       </c>
-      <c r="Q15">
-        <v>0.23127762074073294</v>
+      <c r="Q15" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>98</v>
@@ -1686,51 +1716,51 @@
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K16">
         <v>75</v>
       </c>
       <c r="L16" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s">
         <v>23</v>
       </c>
-      <c r="N16">
-        <v>0.32246675499999999</v>
+      <c r="N16" t="s">
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P16" t="s">
         <v>27</v>
       </c>
-      <c r="Q16">
-        <v>0.23127762074073294</v>
+      <c r="Q16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>124</v>
@@ -1739,51 +1769,51 @@
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K17">
         <v>75</v>
       </c>
       <c r="L17" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s">
         <v>23</v>
       </c>
-      <c r="N17">
-        <v>0.32246675499999999</v>
+      <c r="N17" t="s">
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P17" t="s">
         <v>27</v>
       </c>
-      <c r="Q17">
-        <v>0.23127762074073294</v>
+      <c r="Q17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>327</v>
@@ -1792,51 +1822,51 @@
         <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K18">
         <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s">
         <v>23</v>
       </c>
-      <c r="N18">
-        <v>0.32246675499999999</v>
+      <c r="N18" t="s">
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s">
         <v>27</v>
       </c>
-      <c r="Q18">
-        <v>0.23127762074073294</v>
+      <c r="Q18" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>232</v>
@@ -1845,51 +1875,51 @@
         <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K19">
         <v>75</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s">
         <v>23</v>
       </c>
-      <c r="N19">
-        <v>0.32246675499999999</v>
+      <c r="N19" t="s">
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P19" t="s">
         <v>27</v>
       </c>
-      <c r="Q19">
-        <v>0.23127762074073294</v>
+      <c r="Q19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>223</v>
@@ -1898,51 +1928,51 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K20">
         <v>75</v>
       </c>
       <c r="L20" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s">
         <v>23</v>
       </c>
-      <c r="N20">
-        <v>0.32246675499999999</v>
+      <c r="N20" t="s">
+        <v>157</v>
       </c>
       <c r="O20" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P20" t="s">
         <v>27</v>
       </c>
-      <c r="Q20">
-        <v>0.23127762074073294</v>
+      <c r="Q20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E21">
         <v>269</v>
@@ -1951,51 +1981,51 @@
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K21">
         <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M21" t="s">
         <v>23</v>
       </c>
-      <c r="N21">
-        <v>0.32246675499999999</v>
+      <c r="N21" t="s">
+        <v>157</v>
       </c>
       <c r="O21" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P21" t="s">
         <v>27</v>
       </c>
-      <c r="Q21">
-        <v>0.23127762074073294</v>
+      <c r="Q21" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E22">
         <v>273</v>
@@ -2004,51 +2034,51 @@
         <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J22" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K22">
         <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M22" t="s">
         <v>23</v>
       </c>
-      <c r="N22">
-        <v>0.32246675499999999</v>
+      <c r="N22" t="s">
+        <v>157</v>
       </c>
       <c r="O22" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P22" t="s">
         <v>27</v>
       </c>
-      <c r="Q22">
-        <v>0.23127762074073294</v>
+      <c r="Q22" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>359</v>
@@ -2057,51 +2087,51 @@
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K23">
         <v>75</v>
       </c>
       <c r="L23" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M23" t="s">
         <v>23</v>
       </c>
-      <c r="N23">
-        <v>0.32246675499999999</v>
+      <c r="N23" t="s">
+        <v>157</v>
       </c>
       <c r="O23" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P23" t="s">
         <v>27</v>
       </c>
-      <c r="Q23">
-        <v>0.23127762074073294</v>
+      <c r="Q23" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>232</v>
@@ -2110,51 +2140,51 @@
         <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K24">
         <v>75</v>
       </c>
       <c r="L24" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s">
         <v>23</v>
       </c>
-      <c r="N24">
-        <v>0.32246675499999999</v>
+      <c r="N24" t="s">
+        <v>157</v>
       </c>
       <c r="O24" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P24" t="s">
         <v>27</v>
       </c>
-      <c r="Q24">
-        <v>0.23127762074073294</v>
+      <c r="Q24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>245</v>
@@ -2163,51 +2193,51 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K25">
         <v>75</v>
       </c>
       <c r="L25" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M25" t="s">
         <v>23</v>
       </c>
-      <c r="N25">
-        <v>0.32246675499999999</v>
+      <c r="N25" t="s">
+        <v>157</v>
       </c>
       <c r="O25" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s">
         <v>27</v>
       </c>
-      <c r="Q25">
-        <v>0.23127762074073294</v>
+      <c r="Q25" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E26">
         <v>223</v>
@@ -2216,51 +2246,51 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K26">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M26" t="s">
         <v>23</v>
       </c>
-      <c r="N26">
-        <v>0.32246675499999999</v>
+      <c r="N26" t="s">
+        <v>157</v>
       </c>
       <c r="O26" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="P26" t="s">
         <v>27</v>
       </c>
-      <c r="Q26">
-        <v>0.23127762074073294</v>
+      <c r="Q26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <v>389</v>
@@ -2269,51 +2299,51 @@
         <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K27">
         <v>75</v>
       </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M27" t="s">
         <v>23</v>
       </c>
-      <c r="N27">
-        <v>0.32246675499999999</v>
+      <c r="N27" t="s">
+        <v>157</v>
       </c>
       <c r="O27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P27" t="s">
         <v>27</v>
       </c>
-      <c r="Q27">
-        <v>0.28016948031282679</v>
+      <c r="Q27" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E28">
         <v>396</v>
@@ -2322,51 +2352,51 @@
         <v>48</v>
       </c>
       <c r="G28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K28">
         <v>75</v>
       </c>
       <c r="L28" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M28" t="s">
         <v>23</v>
       </c>
-      <c r="N28">
-        <v>0.32246675499999999</v>
+      <c r="N28" t="s">
+        <v>157</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P28" t="s">
         <v>27</v>
       </c>
-      <c r="Q28">
-        <v>0.61797146350823484</v>
+      <c r="Q28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E29">
         <v>77</v>
@@ -2375,51 +2405,51 @@
         <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K29">
         <v>75</v>
       </c>
       <c r="L29" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M29" t="s">
         <v>23</v>
       </c>
-      <c r="N29">
-        <v>0.32246675499999999</v>
+      <c r="N29" t="s">
+        <v>157</v>
       </c>
       <c r="O29" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P29" t="s">
         <v>27</v>
       </c>
-      <c r="Q29">
-        <v>0.61797146350823484</v>
+      <c r="Q29" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E30">
         <v>163</v>
@@ -2428,51 +2458,51 @@
         <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K30">
         <v>75</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M30" t="s">
         <v>23</v>
       </c>
-      <c r="N30">
-        <v>0.32246675499999999</v>
+      <c r="N30" t="s">
+        <v>157</v>
       </c>
       <c r="O30" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P30" t="s">
         <v>27</v>
       </c>
-      <c r="Q30">
-        <v>0.61797146350823484</v>
+      <c r="Q30" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E31">
         <v>396</v>
@@ -2481,51 +2511,51 @@
         <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K31">
         <v>75</v>
       </c>
       <c r="L31" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M31" t="s">
         <v>23</v>
       </c>
-      <c r="N31">
-        <v>0.32246675499999999</v>
+      <c r="N31" t="s">
+        <v>157</v>
       </c>
       <c r="O31" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P31" t="s">
         <v>27</v>
       </c>
-      <c r="Q31">
-        <v>0.61797146350823484</v>
+      <c r="Q31" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
         <v>141</v>
-      </c>
-      <c r="C32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" t="s">
-        <v>147</v>
       </c>
       <c r="E32">
         <v>163</v>
@@ -2534,51 +2564,51 @@
         <v>48</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K32">
         <v>75</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M32" t="s">
         <v>23</v>
       </c>
-      <c r="N32">
-        <v>0.32246675499999999</v>
+      <c r="N32" t="s">
+        <v>157</v>
       </c>
       <c r="O32" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P32" t="s">
         <v>27</v>
       </c>
-      <c r="Q32">
-        <v>0.61797146350823484</v>
+      <c r="Q32" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
         <v>135</v>
       </c>
-      <c r="B33" t="s">
-        <v>141</v>
-      </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E33">
         <v>163</v>
@@ -2587,51 +2617,51 @@
         <v>46</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K33">
         <v>75</v>
       </c>
       <c r="L33" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M33" t="s">
         <v>23</v>
       </c>
-      <c r="N33">
-        <v>0.32246675499999999</v>
+      <c r="N33" t="s">
+        <v>157</v>
       </c>
       <c r="O33" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P33" t="s">
         <v>27</v>
       </c>
-      <c r="Q33">
-        <v>0.61797146350823484</v>
+      <c r="Q33" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E34">
         <v>396</v>
@@ -2640,37 +2670,37 @@
         <v>46</v>
       </c>
       <c r="G34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="K34">
         <v>75</v>
       </c>
       <c r="L34" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="M34" t="s">
         <v>23</v>
       </c>
-      <c r="N34">
-        <v>0.32246675499999999</v>
+      <c r="N34" t="s">
+        <v>157</v>
       </c>
       <c r="O34" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P34" t="s">
         <v>27</v>
       </c>
-      <c r="Q34">
-        <v>0.61797146350823484</v>
+      <c r="Q34" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
